--- a/services/utils/test.xlsx
+++ b/services/utils/test.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" r:id="rId4"/>
+    <sheet sheetId="1" name="EmpDeskAccount" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>The title of teh sheet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>献县光大电力实业有限责任公司员工工资台帐2017年</t>
   </si>
   <si>
     <t>empId</t>
@@ -22,20 +22,40 @@
     <t>name</t>
   </si>
   <si>
-    <t>workercategory</t>
+    <t>workcategory</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>jobrole</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="18"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,32 +423,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFC0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="25" outlineLevelRow="0" outlineLevelCol="5" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
         <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
